--- a/biology/Botanique/Flora_of_Tropical_Africa/Flora_of_Tropical_Africa.xlsx
+++ b/biology/Botanique/Flora_of_Tropical_Africa/Flora_of_Tropical_Africa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flora of Tropical Africa (Flore de l'Afrique tropicale) est une série de dix volumes publiés à Londres entre 1868 et 1937, dont l'abréviation botanique est Fl. Trop. Af. Comme le titre de la série l'indique, elle est consacrée à la description de la flore de l'Afrique tropicale. Elle fut rédigée par Daniel Oliver, David Prain, William Turner Thiselton-Dyer, Arthur William Hill et d'autres botanistes spécialistes.
@@ -524,7 +536,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Fl. Trop. Afr. (IPNI)
  Portail de l’histoire de la zoologie et de la botanique   Portail de la botanique                    </t>
